--- a/DatabaseExport/ForecastReports.xlsx
+++ b/DatabaseExport/ForecastReports.xlsx
@@ -1,28 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1089985\Documents\SchedulerData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0D29D8-DADF-4D11-8913-B7B763F674C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
+    <workbookView xWindow="2730" yWindow="1080" windowWidth="21600" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" r:id="rId1" name="ForecastReports"/>
+    <sheet name="ForecastReports" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ForecastReports">'ForecastReports'!$A$1:$D$6</definedName>
+    <definedName name="ForecastReports">ForecastReports!$A$1:$D$8</definedName>
   </definedNames>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ReportDescription</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>DSFS_21_22</t>
+  </si>
+  <si>
+    <t>DMSMP_FY21</t>
+  </si>
+  <si>
+    <t>DMSMP_FY22</t>
+  </si>
+  <si>
+    <t>2022_2023_DSFS</t>
+  </si>
+  <si>
+    <t>2022_2023_DGFS</t>
+  </si>
+  <si>
+    <t>DSFS_Mar23_Feb24</t>
+  </si>
+  <si>
+    <t>DGFS_23_24</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="MS Sans Serif"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -47,11 +91,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyProtection="1" applyNumberFormat="1" xfId="0">
-      <alignment wrapText="0" vertical="center" horizontal="general"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -59,6 +102,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -105,7 +156,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -137,9 +188,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -171,6 +240,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -346,45 +433,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row outlineLevel="0" r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="inlineStr">
-        <is>
-          <t>ReportDescription</t>
-        </is>
-      </c>
-      <c r="C1" s="0" t="inlineStr">
-        <is>
-          <t>StartDate</t>
-        </is>
-      </c>
-      <c r="D1" s="0" t="inlineStr">
-        <is>
-          <t>EndDate</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="2">
-      <c r="A2" s="0">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>DSFS_21_22</t>
-        </is>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
       <c r="C2" s="1">
         <v>44317</v>
@@ -393,14 +473,12 @@
         <v>44620</v>
       </c>
     </row>
-    <row outlineLevel="0" r="3">
-      <c r="A3" s="0">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>DMSMP_FY21</t>
-        </is>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>44105</v>
@@ -409,14 +487,12 @@
         <v>44468</v>
       </c>
     </row>
-    <row outlineLevel="0" r="4">
-      <c r="A4" s="0">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>DMSMP_FY22</t>
-        </is>
+      <c r="B4" t="s">
+        <v>6</v>
       </c>
       <c r="C4" s="1">
         <v>44469</v>
@@ -425,14 +501,12 @@
         <v>44650</v>
       </c>
     </row>
-    <row outlineLevel="0" r="5">
-      <c r="A5" s="0">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>2022_2023_DSFS</t>
-        </is>
+      <c r="B5" t="s">
+        <v>7</v>
       </c>
       <c r="C5" s="1">
         <v>44621</v>
@@ -441,14 +515,12 @@
         <v>44985</v>
       </c>
     </row>
-    <row outlineLevel="0" r="6">
-      <c r="A6" s="0">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>2022_2023_DGFS</t>
-        </is>
+      <c r="B6" t="s">
+        <v>8</v>
       </c>
       <c r="C6" s="1">
         <v>44650</v>
@@ -457,7 +529,75 @@
         <v>45014</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>44986</v>
+      </c>
+      <c r="D7" s="1">
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45015</v>
+      </c>
+      <c r="D8" s="1">
+        <v>45380</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;08&amp;K000000Raytheon Technologies - Unrestricted Content</oddHeader>
+    <evenHeader>&amp;C&amp;"Arial,Regular"&amp;08&amp;K000000Raytheon Technologies - Unrestricted Content</evenHeader>
+    <firstHeader>&amp;C&amp;"Arial,Regular"&amp;08&amp;K000000Raytheon Technologies - Unrestricted Content</firstHeader>
+  </headerFooter>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<WrappedLabelHistory xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="http://www.boldonjames.com/2016/02/Classifier/internal/wrappedLabelHistory">
+  <Value>PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0idXMtYXNjaWkiPz48bGFiZWxIaXN0b3J5IHhtbG5zOnhzaT0iaHR0cDovL3d3dy53My5vcmcvMjAwMS9YTUxTY2hlbWEtaW5zdGFuY2UiIHhtbG5zOnhzZD0iaHR0cDovL3d3dy53My5vcmcvMjAwMS9YTUxTY2hlbWEiIHhtbG5zPSJodHRwOi8vd3d3LmJvbGRvbmphbWVzLmNvbS8yMDE2LzAyL0NsYXNzaWZpZXIvaW50ZXJuYWwvbGFiZWxIaXN0b3J5Ij48aXRlbT48c2lzbCBzaXNsVmVyc2lvbj0iMCIgcG9saWN5PSJjZGU1M2FjMS1iZjVmLTRhYWUtOWNmMS0wNzUwOWUyM2E0YjAiIG9yaWdpbj0idXNlclNlbGVjdGVkIj48ZWxlbWVudCB1aWQ9ImRlY2VjYmQ2LWRhM2ItNDZmZS04ZjAwLWY5ZDlkZWVhMmVlMSIgdmFsdWU9IiIgeG1sbnM9Imh0dHA6Ly93d3cuYm9sZG9uamFtZXMuY29tLzIwMDgvMDEvc2llL2ludGVybmFsL2xhYmVsIiAvPjxlbGVtZW50IHVpZD0iYTRhOWYzODItOGNlYy00MGJiLWE5YzMtYzE4NzZkZWQ5ZGVlIiB2YWx1ZT0iIiB4bWxucz0iaHR0cDovL3d3dy5ib2xkb25qYW1lcy5jb20vMjAwOC8wMS9zaWUvaW50ZXJuYWwvbGFiZWwiIC8+PGVsZW1lbnQgdWlkPSJiYmE5NGM2NS1hYzNkLTRmMzQtYjJlMS04ZGUxMWVmNmYwMWMiIHZhbHVlPSIiIHhtbG5zPSJodHRwOi8vd3d3LmJvbGRvbmphbWVzLmNvbS8yMDA4LzAxL3NpZS9pbnRlcm5hbC9sYWJlbCIgLz48ZWxlbWVudCB1aWQ9ImJjMmI3YzAxLTZkYjEtNGU3ZC04OGQxLWZjNjE2NzRmODZmZCIgdmFsdWU9IiIgeG1sbnM9Imh0dHA6Ly93d3cuYm9sZG9uamFtZXMuY29tLzIwMDgvMDEvc2llL2ludGVybmFsL2xhYmVsIiAvPjxlbGVtZW50IHVpZD0iOTJlOTkzYTMtYWYzMi00YWZiLWFhMTktM2E0OWNkYjgyYzdhIiB2YWx1ZT0iIiB4bWxucz0iaHR0cDovL3d3dy5ib2xkb25qYW1lcy5jb20vMjAwOC8wMS9zaWUvaW50ZXJuYWwvbGFiZWwiIC8+PC9zaXNsPjxVc2VyTmFtZT5VU1wxMDg5OTg1PC9Vc2VyTmFtZT48RGF0ZVRpbWU+NS8xLzIwMjMgOTozOToyNCBQTTwvRGF0ZVRpbWU+PExhYmVsU3RyaW5nPk9yaWdpbiBKdXJpc2RpY3Rpb246IFVTIHwgVW5yZXN0cmljdGVkIENvbnRlbnQgfCBSYXl0aGVvbiBUZWNobm9sb2dpZXMgKENvcnBvcmF0ZSBPbmx5KSB8IE90aGVyIEluZm9ybWF0aW9uIChOb3QgUmVxdWlyaW5nIGFuIEV4cG9ydCBDb250cm9sIE1hcmtpbmcpIHwgTm8gbWFya2luZyBhcHBsaWVkIGJ5IHRoZSB0b29sPC9MYWJlbFN0cmluZz48L2l0ZW0+PC9sYWJlbEhpc3Rvcnk+</Value>
+</WrappedLabelHistory>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<sisl xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="http://www.boldonjames.com/2008/01/sie/internal/label" sislVersion="0" policy="cde53ac1-bf5f-4aae-9cf1-07509e23a4b0" origin="userSelected">
+  <element uid="dececbd6-da3b-46fe-8f00-f9d9deea2ee1" value=""/>
+  <element uid="a4a9f382-8cec-40bb-a9c3-c1876ded9dee" value=""/>
+  <element uid="bba94c65-ac3d-4f34-b2e1-8de11ef6f01c" value=""/>
+  <element uid="bc2b7c01-6db1-4e7d-88d1-fc61674f86fd" value=""/>
+  <element uid="92e993a3-af32-4afb-aa19-3a49cdb82c7a" value=""/>
+</sisl>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6EAF906-DB83-4A91-855F-446BB898F699}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://www.boldonjames.com/2016/02/Classifier/internal/wrappedLabelHistory"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CE4576C-4E95-4224-95D5-9DD205128103}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/DatabaseExport/ForecastReports.xlsx
+++ b/DatabaseExport/ForecastReports.xlsx
@@ -1,72 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1089985\Documents\SchedulerData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0D29D8-DADF-4D11-8913-B7B763F674C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="1080" windowWidth="21600" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
   </bookViews>
   <sheets>
-    <sheet name="ForecastReports" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" r:id="rId1" name="ForecastReports"/>
   </sheets>
   <definedNames>
-    <definedName name="ForecastReports">ForecastReports!$A$1:$D$8</definedName>
+    <definedName name="ForecastReports">'ForecastReports'!$A$1:$D$8</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>ReportDescription</t>
-  </si>
-  <si>
-    <t>StartDate</t>
-  </si>
-  <si>
-    <t>EndDate</t>
-  </si>
-  <si>
-    <t>DSFS_21_22</t>
-  </si>
-  <si>
-    <t>DMSMP_FY21</t>
-  </si>
-  <si>
-    <t>DMSMP_FY22</t>
-  </si>
-  <si>
-    <t>2022_2023_DSFS</t>
-  </si>
-  <si>
-    <t>2022_2023_DGFS</t>
-  </si>
-  <si>
-    <t>DSFS_Mar23_Feb24</t>
-  </si>
-  <si>
-    <t>DGFS_23_24</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="MS Sans Serif"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -91,10 +47,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyProtection="1" applyNumberFormat="1" xfId="0">
+      <alignment wrapText="0" vertical="center" horizontal="general"/>
+      <protection locked="1" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -102,14 +59,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -156,7 +105,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -188,27 +137,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -240,24 +171,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -433,38 +346,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <pageSetUpPr autoPageBreaks="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row outlineLevel="0" r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>ReportDescription</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>StartDate</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>EndDate</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2">
+      <c r="A2" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>DSFS_21_22</t>
+        </is>
       </c>
       <c r="C2" s="1">
         <v>44317</v>
@@ -473,12 +393,14 @@
         <v>44620</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="0">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>DMSMP_FY21</t>
+        </is>
       </c>
       <c r="C3" s="1">
         <v>44105</v>
@@ -487,12 +409,14 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="0">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>DMSMP_FY22</t>
+        </is>
       </c>
       <c r="C4" s="1">
         <v>44469</v>
@@ -501,12 +425,14 @@
         <v>44650</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="0">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>2022_2023_DSFS</t>
+        </is>
       </c>
       <c r="C5" s="1">
         <v>44621</v>
@@ -515,12 +441,14 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="0">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>2022_2023_DGFS</t>
+        </is>
       </c>
       <c r="C6" s="1">
         <v>44650</v>
@@ -529,12 +457,14 @@
         <v>45014</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row outlineLevel="0" r="7">
+      <c r="A7" s="0">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>DSFS_Mar23_Feb24</t>
+        </is>
       </c>
       <c r="C7" s="1">
         <v>44986</v>
@@ -543,12 +473,14 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row outlineLevel="0" r="8">
+      <c r="A8" s="0">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>DGFS_23_24</t>
+        </is>
       </c>
       <c r="C8" s="1">
         <v>45015</v>
@@ -559,45 +491,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;08&amp;K000000Raytheon Technologies - Unrestricted Content</oddHeader>
-    <evenHeader>&amp;C&amp;"Arial,Regular"&amp;08&amp;K000000Raytheon Technologies - Unrestricted Content</evenHeader>
-    <firstHeader>&amp;C&amp;"Arial,Regular"&amp;08&amp;K000000Raytheon Technologies - Unrestricted Content</firstHeader>
-  </headerFooter>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<WrappedLabelHistory xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="http://www.boldonjames.com/2016/02/Classifier/internal/wrappedLabelHistory">
-  <Value>PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0idXMtYXNjaWkiPz48bGFiZWxIaXN0b3J5IHhtbG5zOnhzaT0iaHR0cDovL3d3dy53My5vcmcvMjAwMS9YTUxTY2hlbWEtaW5zdGFuY2UiIHhtbG5zOnhzZD0iaHR0cDovL3d3dy53My5vcmcvMjAwMS9YTUxTY2hlbWEiIHhtbG5zPSJodHRwOi8vd3d3LmJvbGRvbmphbWVzLmNvbS8yMDE2LzAyL0NsYXNzaWZpZXIvaW50ZXJuYWwvbGFiZWxIaXN0b3J5Ij48aXRlbT48c2lzbCBzaXNsVmVyc2lvbj0iMCIgcG9saWN5PSJjZGU1M2FjMS1iZjVmLTRhYWUtOWNmMS0wNzUwOWUyM2E0YjAiIG9yaWdpbj0idXNlclNlbGVjdGVkIj48ZWxlbWVudCB1aWQ9ImRlY2VjYmQ2LWRhM2ItNDZmZS04ZjAwLWY5ZDlkZWVhMmVlMSIgdmFsdWU9IiIgeG1sbnM9Imh0dHA6Ly93d3cuYm9sZG9uamFtZXMuY29tLzIwMDgvMDEvc2llL2ludGVybmFsL2xhYmVsIiAvPjxlbGVtZW50IHVpZD0iYTRhOWYzODItOGNlYy00MGJiLWE5YzMtYzE4NzZkZWQ5ZGVlIiB2YWx1ZT0iIiB4bWxucz0iaHR0cDovL3d3dy5ib2xkb25qYW1lcy5jb20vMjAwOC8wMS9zaWUvaW50ZXJuYWwvbGFiZWwiIC8+PGVsZW1lbnQgdWlkPSJiYmE5NGM2NS1hYzNkLTRmMzQtYjJlMS04ZGUxMWVmNmYwMWMiIHZhbHVlPSIiIHhtbG5zPSJodHRwOi8vd3d3LmJvbGRvbmphbWVzLmNvbS8yMDA4LzAxL3NpZS9pbnRlcm5hbC9sYWJlbCIgLz48ZWxlbWVudCB1aWQ9ImJjMmI3YzAxLTZkYjEtNGU3ZC04OGQxLWZjNjE2NzRmODZmZCIgdmFsdWU9IiIgeG1sbnM9Imh0dHA6Ly93d3cuYm9sZG9uamFtZXMuY29tLzIwMDgvMDEvc2llL2ludGVybmFsL2xhYmVsIiAvPjxlbGVtZW50IHVpZD0iOTJlOTkzYTMtYWYzMi00YWZiLWFhMTktM2E0OWNkYjgyYzdhIiB2YWx1ZT0iIiB4bWxucz0iaHR0cDovL3d3dy5ib2xkb25qYW1lcy5jb20vMjAwOC8wMS9zaWUvaW50ZXJuYWwvbGFiZWwiIC8+PC9zaXNsPjxVc2VyTmFtZT5VU1wxMDg5OTg1PC9Vc2VyTmFtZT48RGF0ZVRpbWU+NS8xLzIwMjMgOTozOToyNCBQTTwvRGF0ZVRpbWU+PExhYmVsU3RyaW5nPk9yaWdpbiBKdXJpc2RpY3Rpb246IFVTIHwgVW5yZXN0cmljdGVkIENvbnRlbnQgfCBSYXl0aGVvbiBUZWNobm9sb2dpZXMgKENvcnBvcmF0ZSBPbmx5KSB8IE90aGVyIEluZm9ybWF0aW9uIChOb3QgUmVxdWlyaW5nIGFuIEV4cG9ydCBDb250cm9sIE1hcmtpbmcpIHwgTm8gbWFya2luZyBhcHBsaWVkIGJ5IHRoZSB0b29sPC9MYWJlbFN0cmluZz48L2l0ZW0+PC9sYWJlbEhpc3Rvcnk+</Value>
-</WrappedLabelHistory>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<sisl xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="http://www.boldonjames.com/2008/01/sie/internal/label" sislVersion="0" policy="cde53ac1-bf5f-4aae-9cf1-07509e23a4b0" origin="userSelected">
-  <element uid="dececbd6-da3b-46fe-8f00-f9d9deea2ee1" value=""/>
-  <element uid="a4a9f382-8cec-40bb-a9c3-c1876ded9dee" value=""/>
-  <element uid="bba94c65-ac3d-4f34-b2e1-8de11ef6f01c" value=""/>
-  <element uid="bc2b7c01-6db1-4e7d-88d1-fc61674f86fd" value=""/>
-  <element uid="92e993a3-af32-4afb-aa19-3a49cdb82c7a" value=""/>
-</sisl>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6EAF906-DB83-4A91-855F-446BB898F699}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://www.boldonjames.com/2016/02/Classifier/internal/wrappedLabelHistory"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CE4576C-4E95-4224-95D5-9DD205128103}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>